--- a/producto/celda_robotizada/Calculos para seleccion del robot.xlsx
+++ b/producto/celda_robotizada/Calculos para seleccion del robot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\apm\producto\celda_robotizada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DA29A24-FAC9-47C3-B991-28E14A433EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD38602-8BB4-4E97-914C-318DDD6144D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{E9866318-770E-4B3E-8602-798E6FC7676F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{E9866318-770E-4B3E-8602-798E6FC7676F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Cálculos para celda robotizada</t>
-  </si>
-  <si>
-    <t>Elementos de ensamblaje</t>
-  </si>
-  <si>
     <t>Baldosa</t>
   </si>
   <si>
@@ -57,20 +51,23 @@
     <t>Tiempo de rutina [s]</t>
   </si>
   <si>
-    <t>Alcance [mm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Velocidad Promedio </t>
+    <t>Calculos para celda robotizada</t>
+  </si>
+  <si>
+    <t>Elementos de ensablaje</t>
+  </si>
+  <si>
+    <t>Aclance [º]</t>
+  </si>
+  <si>
+    <t>Velcidad angular [°/s]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,19 +77,13 @@
     </font>
     <font>
       <b/>
-      <sz val="13.95"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -118,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -136,21 +127,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -158,7 +134,9 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -167,7 +145,9 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -178,39 +158,69 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,6 +236,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>67961</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>42313</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147E5497-3F2B-0294-3DB4-11DCB426E7C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5689600" y="419100"/>
+          <a:ext cx="9211961" cy="7440063"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,101 +587,98 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A2:D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3.1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
+      <c r="D5" s="5">
+        <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="7">
-        <v>3120</v>
-      </c>
-      <c r="C4" s="7">
-        <v>50</v>
-      </c>
-      <c r="D4" s="7">
-        <v>100</v>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5">
+        <v>180</v>
+      </c>
+      <c r="C6" s="5">
+        <v>96</v>
+      </c>
+      <c r="D6" s="5">
+        <v>66.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.45</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2000</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1700</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9">
-        <f>B6/1000*B5</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="10">
-        <f>C6/(1000*C5)</f>
-        <v>3.7777777777777777</v>
-      </c>
-      <c r="D7" s="10">
-        <f>D6/(1000*D5)</f>
-        <v>4.4444444444444446</v>
+      <c r="B7" s="5">
+        <v>150</v>
+      </c>
+      <c r="C7" s="5">
+        <v>96</v>
+      </c>
+      <c r="D7" s="5">
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>
@@ -632,5 +688,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>